--- a/LuBan/cfgs/Datas/商店章节礼包表.xlsx
+++ b/LuBan/cfgs/Datas/商店章节礼包表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="15345" windowHeight="24975"/>
   </bookViews>
   <sheets>
     <sheet name="天赋数值" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="99">
   <si>
     <t>##var</t>
   </si>
@@ -125,7 +125,7 @@
     <t>新手礼包</t>
   </si>
   <si>
-    <t>C001</t>
+    <t>com.backpack.12</t>
   </si>
   <si>
     <t>仅限1次</t>
@@ -140,7 +140,7 @@
     <t>第2章节礼包</t>
   </si>
   <si>
-    <t>C002</t>
+    <t>com.backpack.18</t>
   </si>
   <si>
     <t>1,180|54,20|4,200</t>
@@ -149,13 +149,13 @@
     <t>第3章节礼包</t>
   </si>
   <si>
-    <t>C003</t>
+    <t>com.backpack.18.1</t>
   </si>
   <si>
     <t>第4章节礼包</t>
   </si>
   <si>
-    <t>C004</t>
+    <t>com.backpack.30</t>
   </si>
   <si>
     <t>1,300|54,30|4,600</t>
@@ -164,13 +164,13 @@
     <t>第5章节礼包</t>
   </si>
   <si>
-    <t>C005</t>
+    <t>com.backpack.30.1</t>
   </si>
   <si>
     <t>第6章节礼包</t>
   </si>
   <si>
-    <t>C006</t>
+    <t>com.backpack.45</t>
   </si>
   <si>
     <t>1,450|54,50|4,800</t>
@@ -179,13 +179,13 @@
     <t>第7章节礼包</t>
   </si>
   <si>
-    <t>C007</t>
+    <t>com.backpack.45.1</t>
   </si>
   <si>
     <t>第8章节礼包</t>
   </si>
   <si>
-    <t>C008</t>
+    <t>com.backpack.68</t>
   </si>
   <si>
     <t>1,680|54,75|4,1000</t>
@@ -194,13 +194,13 @@
     <t>第9章节礼包</t>
   </si>
   <si>
-    <t>C009</t>
+    <t>com.backpack.68.1</t>
   </si>
   <si>
     <t>第10章节礼包</t>
   </si>
   <si>
-    <t>C010</t>
+    <t>com.backpack.198</t>
   </si>
   <si>
     <t>1,1980|55,60|54,60|4,3000</t>
@@ -209,61 +209,121 @@
     <t>第11章节礼包</t>
   </si>
   <si>
+    <t>com.backpack.198.1</t>
+  </si>
+  <si>
     <t>第12章节礼包</t>
   </si>
   <si>
+    <t>com.backpack.198.2</t>
+  </si>
+  <si>
     <t>第13章节礼包</t>
   </si>
   <si>
+    <t>com.backpack.198.3</t>
+  </si>
+  <si>
     <t>第14章节礼包</t>
   </si>
   <si>
+    <t>com.backpack.198.4</t>
+  </si>
+  <si>
     <t>第15章节礼包</t>
   </si>
   <si>
+    <t>com.backpack.198.5</t>
+  </si>
+  <si>
     <t>第16章节礼包</t>
   </si>
   <si>
+    <t>com.backpack.198.6</t>
+  </si>
+  <si>
     <t>第17章节礼包</t>
   </si>
   <si>
+    <t>com.backpack.198.7</t>
+  </si>
+  <si>
     <t>第18章节礼包</t>
   </si>
   <si>
+    <t>com.backpack.198.8</t>
+  </si>
+  <si>
     <t>第19章节礼包</t>
   </si>
   <si>
+    <t>com.backpack.198.9</t>
+  </si>
+  <si>
     <t>第20章节礼包</t>
   </si>
   <si>
+    <t>com.backpack.198.10</t>
+  </si>
+  <si>
     <t>第21章节礼包</t>
   </si>
   <si>
+    <t>com.backpack.198.11</t>
+  </si>
+  <si>
     <t>第22章节礼包</t>
   </si>
   <si>
+    <t>com.backpack.198.12</t>
+  </si>
+  <si>
     <t>第23章节礼包</t>
   </si>
   <si>
+    <t>com.backpack.198.13</t>
+  </si>
+  <si>
     <t>第24章节礼包</t>
   </si>
   <si>
+    <t>com.backpack.198.14</t>
+  </si>
+  <si>
     <t>第25章节礼包</t>
   </si>
   <si>
+    <t>com.backpack.198.15</t>
+  </si>
+  <si>
     <t>第26章节礼包</t>
   </si>
   <si>
+    <t>com.backpack.198.16</t>
+  </si>
+  <si>
     <t>第27章节礼包</t>
   </si>
   <si>
+    <t>com.backpack.198.17</t>
+  </si>
+  <si>
     <t>第28章节礼包</t>
   </si>
   <si>
+    <t>com.backpack.198.18</t>
+  </si>
+  <si>
     <t>第29章节礼包</t>
   </si>
   <si>
+    <t>com.backpack.198.19</t>
+  </si>
+  <si>
     <t>第30章节礼包</t>
+  </si>
+  <si>
+    <t>com.backpack.198.20</t>
   </si>
 </sst>
 </file>
@@ -1281,10 +1341,10 @@
   <sheetPr/>
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="R21" sqref="R21"/>
+      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1294,8 +1354,7 @@
     <col min="3" max="4" width="17.75" style="2" customWidth="1"/>
     <col min="5" max="5" width="17.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="16.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17.5" style="2" customWidth="1"/>
+    <col min="7" max="8" width="24" style="2" customWidth="1"/>
     <col min="9" max="9" width="24.5" style="2" customWidth="1"/>
     <col min="10" max="10" width="15.625" style="2" customWidth="1"/>
     <col min="11" max="12" width="15.875" style="2" customWidth="1"/>
@@ -1485,7 +1544,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="2">
-        <v>0.19</v>
+        <v>1.99</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>32</v>
@@ -1529,7 +1588,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="2">
-        <v>1.19</v>
+        <v>2.99</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>37</v>
@@ -1573,7 +1632,7 @@
         <v>18</v>
       </c>
       <c r="F7" s="2">
-        <v>2.19</v>
+        <v>2.99</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>40</v>
@@ -1617,7 +1676,7 @@
         <v>30</v>
       </c>
       <c r="F8" s="2">
-        <v>3.19</v>
+        <v>3.99</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>42</v>
@@ -1661,7 +1720,7 @@
         <v>30</v>
       </c>
       <c r="F9" s="2">
-        <v>4.19</v>
+        <v>3.99</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>45</v>
@@ -1705,7 +1764,7 @@
         <v>45</v>
       </c>
       <c r="F10" s="2">
-        <v>5.19</v>
+        <v>5.99</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>47</v>
@@ -1749,7 +1808,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="2">
-        <v>6.19</v>
+        <v>5.99</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>50</v>
@@ -1793,7 +1852,7 @@
         <v>68</v>
       </c>
       <c r="F12" s="2">
-        <v>7.19</v>
+        <v>9.99</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>52</v>
@@ -1837,7 +1896,7 @@
         <v>68</v>
       </c>
       <c r="F13" s="2">
-        <v>8.19</v>
+        <v>9.99</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>55</v>
@@ -1881,7 +1940,7 @@
         <v>198</v>
       </c>
       <c r="F14" s="2">
-        <v>9.19</v>
+        <v>28.99</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>57</v>
@@ -1925,13 +1984,13 @@
         <v>198</v>
       </c>
       <c r="F15" s="2">
-        <v>10.19</v>
+        <v>28.99</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I15" s="2">
         <v>10.19</v>
@@ -1963,19 +2022,19 @@
         <v>10070004</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E16" s="2">
         <v>198</v>
       </c>
       <c r="F16" s="2">
-        <v>11.19</v>
+        <v>28.99</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I16" s="2">
         <v>11.19</v>
@@ -2007,19 +2066,19 @@
         <v>10070004</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E17" s="2">
         <v>198</v>
       </c>
       <c r="F17" s="2">
-        <v>12.19</v>
+        <v>28.99</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="I17" s="2">
         <v>12.19</v>
@@ -2051,19 +2110,19 @@
         <v>10070004</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E18" s="2">
         <v>198</v>
       </c>
       <c r="F18" s="2">
-        <v>13.19</v>
+        <v>28.99</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="I18" s="2">
         <v>13.19</v>
@@ -2095,19 +2154,19 @@
         <v>10070004</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E19" s="2">
         <v>198</v>
       </c>
       <c r="F19" s="2">
-        <v>14.19</v>
+        <v>28.99</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="I19" s="2">
         <v>14.19</v>
@@ -2139,19 +2198,19 @@
         <v>10070004</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E20" s="2">
         <v>198</v>
       </c>
       <c r="F20" s="2">
-        <v>15.19</v>
+        <v>28.99</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="I20" s="2">
         <v>15.19</v>
@@ -2183,19 +2242,19 @@
         <v>10070004</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E21" s="2">
         <v>198</v>
       </c>
       <c r="F21" s="2">
-        <v>16.19</v>
+        <v>28.99</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="I21" s="2">
         <v>16.19</v>
@@ -2227,19 +2286,19 @@
         <v>10070004</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E22" s="2">
         <v>198</v>
       </c>
       <c r="F22" s="2">
-        <v>17.19</v>
+        <v>28.99</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="I22" s="2">
         <v>17.19</v>
@@ -2271,19 +2330,19 @@
         <v>10070004</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E23" s="2">
         <v>198</v>
       </c>
       <c r="F23" s="2">
-        <v>18.19</v>
+        <v>28.99</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="I23" s="2">
         <v>18.19</v>
@@ -2315,19 +2374,19 @@
         <v>10070004</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E24" s="2">
         <v>198</v>
       </c>
       <c r="F24" s="2">
-        <v>19.19</v>
+        <v>28.99</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="I24" s="2">
         <v>19.19</v>
@@ -2359,19 +2418,19 @@
         <v>10070004</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E25" s="2">
         <v>198</v>
       </c>
       <c r="F25" s="2">
-        <v>20.19</v>
+        <v>28.99</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="I25" s="2">
         <v>20.19</v>
@@ -2403,19 +2462,19 @@
         <v>10070004</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="E26" s="2">
         <v>198</v>
       </c>
       <c r="F26" s="2">
-        <v>21.19</v>
+        <v>28.99</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="I26" s="2">
         <v>21.19</v>
@@ -2447,19 +2506,19 @@
         <v>10070004</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E27" s="2">
         <v>198</v>
       </c>
       <c r="F27" s="2">
-        <v>22.19</v>
+        <v>28.99</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="I27" s="2">
         <v>22.19</v>
@@ -2491,19 +2550,19 @@
         <v>10070004</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="E28" s="2">
         <v>198</v>
       </c>
       <c r="F28" s="2">
-        <v>23.19</v>
+        <v>28.99</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="I28" s="2">
         <v>23.19</v>
@@ -2535,19 +2594,19 @@
         <v>10070004</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E29" s="2">
         <v>198</v>
       </c>
       <c r="F29" s="2">
-        <v>24.19</v>
+        <v>28.99</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I29" s="2">
         <v>24.19</v>
@@ -2579,19 +2638,19 @@
         <v>10070004</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E30" s="2">
         <v>198</v>
       </c>
       <c r="F30" s="2">
-        <v>25.19</v>
+        <v>28.99</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="I30" s="2">
         <v>25.19</v>
@@ -2623,19 +2682,19 @@
         <v>10070004</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="E31" s="2">
         <v>198</v>
       </c>
       <c r="F31" s="2">
-        <v>26.19</v>
+        <v>28.99</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="I31" s="2">
         <v>26.19</v>
@@ -2667,19 +2726,19 @@
         <v>10070004</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E32" s="2">
         <v>198</v>
       </c>
       <c r="F32" s="2">
-        <v>27.19</v>
+        <v>28.99</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="I32" s="2">
         <v>27.19</v>
@@ -2711,19 +2770,19 @@
         <v>10070004</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="E33" s="2">
         <v>198</v>
       </c>
       <c r="F33" s="2">
-        <v>28.19</v>
+        <v>28.99</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="I33" s="2">
         <v>28.19</v>
@@ -2755,19 +2814,19 @@
         <v>10070004</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="E34" s="2">
         <v>198</v>
       </c>
       <c r="F34" s="2">
-        <v>29.19</v>
+        <v>28.99</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="I34" s="2">
         <v>29.19</v>
